--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_BATS_Capacities_2050.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_BATS_Capacities_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\ProRes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{074AE770-47BC-4946-B718-537CEE5A5536}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{070D4354-7CF4-4A82-8901-EB932726FBA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02573AC8-A14B-4D0F-8EE6-164A6C0978A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{572C749F-84C1-4D33-AA00-CB49B5215B3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
     <t>Region</t>
   </si>
   <si>
-    <t>COM - Battery (Lead-acid) ELC Storage: DayNite (accompanying tech to represent power)</t>
-  </si>
-  <si>
-    <t>COM - Battery (Li-ion) ELC Storage: DayNite (accompanying tech to represent power)</t>
-  </si>
-  <si>
-    <t>RSD - Battery (Lead-acid) ELC Storage: DayNite (accompanying tech to represent power)</t>
-  </si>
-  <si>
-    <t>RSD - Battery (Li-ion) ELC Storage: DayNite (accompanying tech to represent power)</t>
+    <t>COM - Battery (Lead-acid) ELC Storage: DayNite</t>
+  </si>
+  <si>
+    <t>COM - Battery (Li-ion) ELC Storage: DayNite</t>
+  </si>
+  <si>
+    <t>RSD - Battery (Lead-acid) ELC Storage: DayNite</t>
+  </si>
+  <si>
+    <t>RSD - Battery (Li-ion) ELC Storage: DayNite</t>
   </si>
   <si>
     <t>AT</t>
@@ -142,6 +142,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +188,7 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -514,7 +517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2DC5D0-9329-45DC-A204-3CDC4C7DDF30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D4BAF3-2E4A-4B89-8A86-46DD6C91226A}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -522,10 +525,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -558,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0.192</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>0.27</v>
+        <v>1.0780000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -569,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>3.5129999999999999</v>
+        <v>14.05</v>
       </c>
       <c r="D4" s="1">
-        <v>3.5329999999999999</v>
+        <v>14.131</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -580,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.39900000000000002</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>0.39900000000000002</v>
+        <v>1.5980000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -591,13 +594,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>2.6469999999999998</v>
+        <v>10.587</v>
       </c>
       <c r="C6" s="1">
         <v>0.221</v>
       </c>
       <c r="D6" s="1">
-        <v>2.6480000000000001</v>
+        <v>10.593</v>
       </c>
       <c r="E6" s="1">
         <v>0.221</v>
@@ -608,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>0.157</v>
+        <v>0.627</v>
       </c>
       <c r="D7" s="1">
-        <v>0.17899999999999999</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -619,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>0.35199999999999998</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>3.0569999999999999</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -630,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>4.8209999999999997</v>
+        <v>19.282</v>
       </c>
       <c r="D9" s="1">
-        <v>38.622</v>
+        <v>154.489</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -641,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>2.4169999999999998</v>
+        <v>9.6679999999999993</v>
       </c>
       <c r="D10" s="1">
-        <v>2.4169999999999998</v>
+        <v>9.6679999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -652,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>0.45300000000000001</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>0.45300000000000001</v>
+        <v>1.8129999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -663,10 +666,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>1.5289999999999999</v>
+        <v>6.117</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -674,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>6.8609999999999998</v>
+        <v>27.443999999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>7.1950000000000003</v>
+        <v>28.780999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -685,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>3.944</v>
+        <v>15.776999999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>4.0170000000000003</v>
+        <v>16.067</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -696,7 +699,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>33.369999999999997</v>
+        <v>133.48099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -704,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1">
-        <v>0.64700000000000002</v>
+        <v>2.589</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -712,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>0.104</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>2.6379999999999999</v>
+        <v>10.552</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -723,10 +726,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="1">
-        <v>1.802</v>
+        <v>7.2089999999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>1.802</v>
+        <v>7.2089999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -734,10 +737,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>1.075</v>
+        <v>4.3019999999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>1.087</v>
+        <v>4.3470000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -745,10 +748,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="1">
-        <v>7.0679999999999996</v>
+        <v>28.27</v>
       </c>
       <c r="D20" s="1">
-        <v>7.9809999999999999</v>
+        <v>31.922999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -756,10 +759,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>0.49199999999999999</v>
+        <v>1.968</v>
       </c>
       <c r="D21" s="1">
-        <v>0.57299999999999995</v>
+        <v>2.2930000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -767,10 +770,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>0.05</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>0.05</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -778,10 +781,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="1">
-        <v>5.2869999999999999</v>
+        <v>21.15</v>
       </c>
       <c r="D23" s="1">
-        <v>5.34</v>
+        <v>21.361000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -789,10 +792,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>2.129</v>
+        <v>8.5150000000000006</v>
       </c>
       <c r="D24" s="1">
-        <v>2.129</v>
+        <v>8.5150000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -800,7 +803,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="1">
-        <v>4.5620000000000003</v>
+        <v>18.248999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -808,10 +811,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>2.573</v>
+        <v>10.292</v>
       </c>
       <c r="D26" s="1">
-        <v>2.8559999999999999</v>
+        <v>11.425000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -819,10 +822,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>0.36799999999999999</v>
+        <v>1.472</v>
       </c>
       <c r="D27" s="1">
-        <v>1.2549999999999999</v>
+        <v>5.0190000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -830,13 +833,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="1">
-        <v>6.9470000000000001</v>
+        <v>27.788</v>
       </c>
       <c r="C28" s="1">
         <v>3.806</v>
       </c>
       <c r="D28" s="1">
-        <v>6.9470000000000001</v>
+        <v>27.788</v>
       </c>
       <c r="E28" s="1">
         <v>3.806</v>
@@ -847,10 +850,10 @@
         <v>32</v>
       </c>
       <c r="B29" s="1">
-        <v>0.56200000000000006</v>
+        <v>2.25</v>
       </c>
       <c r="D29" s="1">
-        <v>0.57099999999999995</v>
+        <v>2.2850000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -858,10 +861,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="1">
-        <v>0.16700000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="D30" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -869,10 +872,10 @@
         <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>11.364000000000001</v>
+        <v>45.456000000000003</v>
       </c>
       <c r="D31" s="1">
-        <v>11.364000000000001</v>
+        <v>45.456000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -880,5 +883,6 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_BATS_Capacities_2050.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_BATS_Capacities_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\ProRes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070D4354-7CF4-4A82-8901-EB932726FBA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB470C34-C0E6-442E-B8D0-233376B2746C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{572C749F-84C1-4D33-AA00-CB49B5215B3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{337B2764-F5AB-4648-8A42-6C6AF04458B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>Process Description1</t>
+    <t>GW</t>
   </si>
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>COM - Battery (Lead-acid) ELC Storage: DayNite</t>
-  </si>
-  <si>
-    <t>COM - Battery (Li-ion) ELC Storage: DayNite</t>
-  </si>
-  <si>
-    <t>RSD - Battery (Lead-acid) ELC Storage: DayNite</t>
-  </si>
-  <si>
-    <t>RSD - Battery (Li-ion) ELC Storage: DayNite</t>
+    <t>COM - Battery (Lead-acid) ELC Storage: DayNite (accompanying tech to represent power)</t>
+  </si>
+  <si>
+    <t>COM - Battery (Li-ion) ELC Storage: DayNite (accompanying tech to represent power)</t>
+  </si>
+  <si>
+    <t>RSD - Battery (Lead-acid) ELC Storage: DayNite (accompanying tech to represent power)</t>
+  </si>
+  <si>
+    <t>RSD - Battery (Li-ion) ELC Storage: DayNite (accompanying tech to represent power)</t>
   </si>
   <si>
     <t>AT</t>
@@ -142,9 +142,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,20 +185,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -517,18 +514,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D4BAF3-2E4A-4B89-8A86-46DD6C91226A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6669399D-FEC5-4974-8124-7F7207506356}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -540,19 +539,19 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -561,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0.76600000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0780000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -572,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>14.05</v>
+        <v>3.5129999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>14.131</v>
+        <v>3.5329999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -583,10 +582,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>1.5980000000000001</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>1.5980000000000001</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -594,13 +593,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>10.587</v>
+        <v>2.6469999999999998</v>
       </c>
       <c r="C6" s="1">
         <v>0.221</v>
       </c>
       <c r="D6" s="1">
-        <v>10.593</v>
+        <v>2.6480000000000001</v>
       </c>
       <c r="E6" s="1">
         <v>0.221</v>
@@ -611,10 +610,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>0.627</v>
+        <v>0.157</v>
       </c>
       <c r="D7" s="1">
-        <v>0.71699999999999997</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -622,10 +621,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>1.4079999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>12.23</v>
+        <v>3.0569999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -633,10 +632,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>19.282</v>
+        <v>4.8209999999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>154.489</v>
+        <v>38.622</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -644,10 +643,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>9.6679999999999993</v>
+        <v>2.4169999999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>9.6679999999999993</v>
+        <v>2.4169999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -655,10 +654,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>1.8129999999999999</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>1.8129999999999999</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -666,10 +665,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="1">
-        <v>6.117</v>
+        <v>1.5289999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -677,10 +676,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>27.443999999999999</v>
+        <v>6.8609999999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>28.780999999999999</v>
+        <v>7.1950000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -688,10 +687,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>15.776999999999999</v>
+        <v>3.944</v>
       </c>
       <c r="D14" s="1">
-        <v>16.067</v>
+        <v>4.0170000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -699,7 +698,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>133.48099999999999</v>
+        <v>33.369999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -707,7 +706,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1">
-        <v>2.589</v>
+        <v>0.64700000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -715,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>0.41399999999999998</v>
+        <v>0.104</v>
       </c>
       <c r="D17" s="1">
-        <v>10.552</v>
+        <v>2.6379999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -726,10 +725,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="1">
-        <v>7.2089999999999996</v>
+        <v>1.802</v>
       </c>
       <c r="D18" s="1">
-        <v>7.2089999999999996</v>
+        <v>1.802</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -737,10 +736,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>4.3019999999999996</v>
+        <v>1.075</v>
       </c>
       <c r="D19" s="1">
-        <v>4.3470000000000004</v>
+        <v>1.087</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -748,10 +747,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="1">
-        <v>28.27</v>
+        <v>7.0679999999999996</v>
       </c>
       <c r="D20" s="1">
-        <v>31.922999999999998</v>
+        <v>7.9809999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -759,10 +758,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>1.968</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>2.2930000000000001</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -770,10 +769,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>0.20100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="D22" s="1">
-        <v>0.20100000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -781,10 +780,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="1">
-        <v>21.15</v>
+        <v>5.2869999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>21.361000000000001</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -792,10 +791,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>8.5150000000000006</v>
+        <v>2.129</v>
       </c>
       <c r="D24" s="1">
-        <v>8.5150000000000006</v>
+        <v>2.129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -803,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="1">
-        <v>18.248999999999999</v>
+        <v>4.5620000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -811,10 +810,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>10.292</v>
+        <v>2.573</v>
       </c>
       <c r="D26" s="1">
-        <v>11.425000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -822,10 +821,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>1.472</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>5.0190000000000001</v>
+        <v>1.2549999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -833,13 +832,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="1">
-        <v>27.788</v>
+        <v>6.9470000000000001</v>
       </c>
       <c r="C28" s="1">
         <v>3.806</v>
       </c>
       <c r="D28" s="1">
-        <v>27.788</v>
+        <v>6.9470000000000001</v>
       </c>
       <c r="E28" s="1">
         <v>3.806</v>
@@ -850,10 +849,10 @@
         <v>32</v>
       </c>
       <c r="B29" s="1">
-        <v>2.25</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D29" s="1">
-        <v>2.2850000000000001</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -861,10 +860,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="1">
-        <v>0.67</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>0.69599999999999995</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -872,10 +871,10 @@
         <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>45.456000000000003</v>
+        <v>11.364000000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>45.456000000000003</v>
+        <v>11.364000000000001</v>
       </c>
     </row>
   </sheetData>
